--- a/BA/GA2/data_transform.xlsx
+++ b/BA/GA2/data_transform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc\BA\Assignment 2\Sep_23_A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc\BA\Assignment 2\23_Feb_A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB857E3F-8399-4AB0-9403-FD5640EFD67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281DD168-026D-4636-85F2-84CA365E0150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +168,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -473,21 +465,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -533,14 +510,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -600,9 +571,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -640,9 +611,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,9 +646,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,9 +698,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -889,417 +894,417 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B2" s="2">
-        <v>68.900000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15.600000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3.08</v>
-      </c>
-      <c r="B5" s="2">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>8.14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>7.92</v>
-      </c>
-      <c r="B7" s="2">
-        <v>15.600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>4.8400000000000007</v>
-      </c>
-      <c r="B8" s="2">
-        <v>35.1</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="B9" s="2">
-        <v>22.1</v>
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>3.08</v>
-      </c>
-      <c r="B10" s="2">
-        <v>79.3</v>
+      <c r="A10">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>1.4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>7.0400000000000009</v>
-      </c>
-      <c r="B11" s="2">
-        <v>26</v>
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>1.7600000000000002</v>
-      </c>
-      <c r="B12" s="2">
-        <v>123.5</v>
+      <c r="A12">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2.4200000000000004</v>
-      </c>
-      <c r="B13" s="2">
-        <v>42.9</v>
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>24.7</v>
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="B15" s="2">
-        <v>19.5</v>
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B16" s="2">
-        <v>55.9</v>
+      <c r="A16">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>5.7200000000000006</v>
-      </c>
-      <c r="B17" s="2">
-        <v>14.3</v>
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="B18" s="2">
-        <v>26</v>
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>5.28</v>
-      </c>
-      <c r="B19" s="2">
-        <v>46.800000000000004</v>
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2.4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>7.92</v>
-      </c>
-      <c r="B20" s="2">
-        <v>9.1</v>
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>6.16</v>
-      </c>
-      <c r="B21" s="2">
-        <v>11.700000000000001</v>
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2.8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>5.28</v>
-      </c>
-      <c r="B22" s="2">
-        <v>27.3</v>
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="B23" s="2">
-        <v>32.5</v>
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>4.620000000000001</v>
-      </c>
-      <c r="B24" s="2">
-        <v>37.700000000000003</v>
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>2.1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="B25" s="2">
-        <v>23.400000000000002</v>
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>7.92</v>
-      </c>
-      <c r="B26" s="2">
-        <v>7.8000000000000007</v>
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>8.14</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.1</v>
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>3.7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="B28" s="2">
-        <v>19.5</v>
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>2.9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="B29" s="2">
-        <v>29.900000000000002</v>
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2.4200000000000004</v>
-      </c>
-      <c r="B30" s="2">
-        <v>66.3</v>
+      <c r="A30">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="B31" s="2">
-        <v>120.9</v>
+      <c r="A31">
+        <v>93</v>
+      </c>
+      <c r="B31">
+        <v>1.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B32" s="2">
-        <v>66.3</v>
+      <c r="A32">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>8.14</v>
-      </c>
-      <c r="B33" s="2">
-        <v>18.2</v>
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>3.7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="B34" s="2">
-        <v>53.300000000000004</v>
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="B35" s="2">
-        <v>10.4</v>
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>3.4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B36" s="2">
-        <v>148.20000000000002</v>
+      <c r="A36">
+        <v>114</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45.5</v>
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B38" s="2">
-        <v>23.400000000000002</v>
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="B39" s="2">
-        <v>11.700000000000001</v>
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>3.3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="B40" s="2">
-        <v>59.800000000000004</v>
+      <c r="A40">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B41" s="2">
-        <v>22.1</v>
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>2.8600000000000003</v>
-      </c>
-      <c r="B42" s="2">
-        <v>55.9</v>
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1.3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>1.7600000000000002</v>
-      </c>
-      <c r="B43" s="2">
-        <v>81.900000000000006</v>
+      <c r="A43">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>7.92</v>
-      </c>
-      <c r="B44" s="2">
-        <v>10.4</v>
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44.2</v>
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45">
+        <v>1.6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="B46" s="2">
-        <v>188.5</v>
+      <c r="A46">
+        <v>145</v>
+      </c>
+      <c r="B46">
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>5.28</v>
-      </c>
-      <c r="B47" s="2">
-        <v>23.400000000000002</v>
+      <c r="A47">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>2.4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>3.7400000000000007</v>
-      </c>
-      <c r="B48" s="2">
-        <v>52</v>
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>6.16</v>
-      </c>
-      <c r="B49" s="2">
-        <v>22.1</v>
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>2.8</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>7.0400000000000009</v>
-      </c>
-      <c r="B50" s="2">
-        <v>22.1</v>
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>3.2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>8.14</v>
-      </c>
-      <c r="B51" s="2">
-        <v>15.600000000000001</v>
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
